--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social funcional bajo</t>
+          <t>Apoyo social funcional bajo (tasa de respuesta: 97,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,16%</t>
+          <t>79,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,5; 84,45</t>
+          <t>71,73; 84,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,7; 76,68</t>
+          <t>63,13; 76,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,51; 88,86</t>
+          <t>80,79; 89,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>68,08; 75,11</t>
+          <t>67,29; 75,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>79,47; 85,94</t>
+          <t>79,25; 86,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,3; 73,99</t>
+          <t>67,96; 74,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>83,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,27%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,13; 83,65</t>
+          <t>80,31; 85,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 67,66</t>
+          <t>32,85; 67,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>81,02; 85,23</t>
+          <t>81,18; 86,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,15; 67,69</t>
+          <t>50,55; 67,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>80,94; 84,07</t>
+          <t>81,51; 84,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,14; 66,15</t>
+          <t>40,93; 66,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,23; 80,91</t>
+          <t>72,47; 80,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,81; 63,88</t>
+          <t>53,49; 63,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>84,25; 89,65</t>
+          <t>84,24; 90,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>55,91; 64,05</t>
+          <t>55,65; 64,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,22; 84,99</t>
+          <t>80,11; 85,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,04; 62,86</t>
+          <t>55,91; 62,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>80,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,9; 82,06</t>
+          <t>79,06; 83,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>40,06; 65,76</t>
+          <t>36,5; 65,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,81; 86,11</t>
+          <t>83,46; 86,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,3; 66,93</t>
+          <t>55,95; 66,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,37; 83,75</t>
+          <t>81,88; 84,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,59; 65,26</t>
+          <t>43,76; 65,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33325</t>
+          <t>57801</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59494</t>
+          <t>99540</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92818</t>
+          <t>157341</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30521; 35551</t>
+          <t>52364; 61700</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>142262; 171250</t>
+          <t>140986; 170073</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56101; 61921</t>
+          <t>94002; 103911</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>263612; 290852</t>
+          <t>260570; 291091</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>88832; 96061</t>
+          <t>150059; 163227</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>410877; 451747</t>
+          <t>414915; 453685</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>186221</t>
+          <t>387789</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>194545</t>
+          <t>377681</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>380766</t>
+          <t>765470</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>180721; 191045</t>
+          <t>375222; 398524</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>415547; 943817</t>
+          <t>458205; 947320</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>189288; 199105</t>
+          <t>366193; 388679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>572951; 789096</t>
+          <t>589337; 788806</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>373974; 388424</t>
+          <t>748543; 780408</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1104552; 1693886</t>
+          <t>1048140; 1690586</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63082</t>
+          <t>158638</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93955</t>
+          <t>220547</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>157036</t>
+          <t>379185</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59820; 66096</t>
+          <t>149197; 166731</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>240854; 285933</t>
+          <t>239410; 283712</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90946; 96775</t>
+          <t>212574; 227630</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>245975; 281786</t>
+          <t>244854; 281728</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>152119; 161179</t>
+          <t>367083; 390208</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>497374; 557940</t>
+          <t>496223; 553027</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>282627</t>
+          <t>604228</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>347993</t>
+          <t>697769</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>630621</t>
+          <t>1301997</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>274367; 288999</t>
+          <t>589868; 619886</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>827506; 1358581</t>
+          <t>753934; 1362083</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>340539; 354138</t>
+          <t>684195; 712028</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1121980; 1333884</t>
+          <t>1114954; 1332729</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>621238; 639404</t>
+          <t>1282159; 1321928</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1972175; 2648757</t>
+          <t>1775992; 2652565</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/APOYO_SOCIAL_DUKE_CAT-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>70,32%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>66,52%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>79,17%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>70,48%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>66,52%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>69,52%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>85,55%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>71,57%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>69,52%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>71,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>83,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>71,18%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>68,18%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>63,97; 75,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>61,76; 71,17</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>71,73; 84,52</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>63,13; 76,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>61,76; 71,17</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>69,04; 76,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>65,63; 73,04</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>80,79; 89,31</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>67,29; 75,18</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>65,63; 73,04</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>68,83; 75,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65,3; 70,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>79,25; 86,2</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>67,96; 74,31</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>65,3; 70,82</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>68,4%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>65,75%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>83,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>54,99%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>65,75%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>67,44%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>65,52%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>83,72%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>62,65%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>65,52%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>67,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>83,36%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>58,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>65,64%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>65,02; 71,25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63,21; 68,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>80,31; 85,3</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>32,85; 67,91</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>63,21; 68,04</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>65,02; 69,84</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62,74; 68,03</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>81,18; 86,16</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>50,55; 67,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>62,74; 68,03</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>65,64; 70,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>63,81; 67,38</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>81,51; 84,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>40,93; 66,02</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>63,81; 67,38</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>61,17%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65,62%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>77,05%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>58,75%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>65,62%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>60,57%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>87,4%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>60,07%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,27%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>60,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>62,29%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>82,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>59,4%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>62,29%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>56,29; 65,62</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61,81; 69,75</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>72,47; 80,98</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>53,49; 63,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>61,81; 69,75</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>56,59; 64,51</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55,39; 63,08</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>84,24; 90,2</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>55,65; 64,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>55,39; 63,08</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>57,46; 63,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59,42; 64,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>80,11; 85,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>55,91; 62,31</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>59,42; 64,97</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>66,86%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>65,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>80,99%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>57,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>65,83%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>66,91%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>64,5%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>85,11%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>63,81%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>64,5%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65,14%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>83,15%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>60,59%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>65,14%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>64,0; 69,14</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63,73; 67,68</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>79,06; 83,09</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>36,5; 65,93</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>63,73; 67,68</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>65,09; 69,09</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62,65; 66,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>83,46; 86,85</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>55,95; 66,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>62,65; 66,45</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>65,3; 68,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63,7; 66,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>81,88; 84,42</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>43,76; 65,35</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>63,7; 66,41</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>187</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>359</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>397</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>546</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>693</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>738</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>176017</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>137852</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>57801</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>157406</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>137852</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>306745</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>179546</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>99540</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>277148</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>179546</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>482762</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>317399</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>157341</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>434554</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>317399</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>160112; 189205</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>127984; 147480</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>52364; 61700</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>140986; 170073</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>127984; 147480</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>291315; 321538</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>169495; 188651</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>94002; 103911</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>260570; 291091</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>169495; 188651</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>462710; 505588</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>303982; 329680</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>150059; 163227</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>414915; 453685</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>303982; 329680</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1114</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>789</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>991</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>1136</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1121</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1901</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2250</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1901</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>869847</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>543264</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>387789</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>767025</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>543264</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>845866</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>545770</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>377681</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>730279</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>545770</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1715712</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1089034</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>765470</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1497304</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1089034</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>826885; 906048</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>522284; 562191</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>375222; 398524</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>458205; 947320</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>522284; 562191</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>815481; 875856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>522591; 566715</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>366193; 388679</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>589337; 788806</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>522591; 566715</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1657995; 1768543</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1058750; 1117930</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>748543; 780408</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1048140; 1690586</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1058750; 1117930</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>383</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>396</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>580</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>396</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>963</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>792</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>303594</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>243361</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>158638</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>262938</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>243361</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>297089</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>242907</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>220547</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>264263</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>242907</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>600683</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>486267</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>379185</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>527201</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>486267</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>279397; 325711</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>229222; 258672</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>149197; 166731</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>239410; 283712</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>229222; 258672</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>277556; 316433</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>227011; 258500</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>212574; 227630</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>244854; 281728</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>227011; 258500</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>567031; 628471</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>463889; 507233</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>367083; 390208</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>496223; 553027</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>463889; 507233</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1289</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1684</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1289</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1728</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1703</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>2075</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1703</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3431</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3759</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3310</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3431</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1349458</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>924477</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>604228</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1187368</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>924477</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1449700</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>968223</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>697769</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1271691</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>968223</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2799157</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1892700</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1301997</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2459059</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1892700</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1291804; 1395452</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>894985; 950464</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>589868; 619886</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>753934; 1362083</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>894985; 950464</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>1410159; 1496951</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>940487; 997430</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>684195; 712028</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1114954; 1332729</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>940487; 997430</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>2732940; 2863258</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1850728; 1929436</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1282159; 1321928</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1775992; 2652565</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1850728; 1929436</t>
         </is>
       </c>
     </row>
